--- a/HC.DZWechat/aspnet-core/src/hc.dzwechat.Web.Host/wwwroot/files/downloadtemp/兑换明细.xlsx
+++ b/HC.DZWechat/aspnet-core/src/hc.dzwechat.Web.Host/wwwroot/files/downloadtemp/兑换明细.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">订单编号</t>
   </si>
@@ -35,31 +35,16 @@
     <t xml:space="preserve">物流公司</t>
   </si>
   <si>
-    <t xml:space="preserve">OR20190110</t>
+    <t xml:space="preserve">OR20190103</t>
   </si>
   <si>
     <t xml:space="preserve">小王高档烟酒店</t>
   </si>
   <si>
-    <t xml:space="preserve">宽窄如意</t>
+    <t xml:space="preserve">岳池米粉</t>
   </si>
   <si>
     <t xml:space="preserve">邮寄兑换</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-01-11 10:26:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132329300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中通快递</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR20190103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岳池米粉</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-04 10:26:31</t>
@@ -184,48 +169,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/HC.DZWechat/aspnet-core/src/hc.dzwechat.Web.Host/wwwroot/files/downloadtemp/兑换明细.xlsx
+++ b/HC.DZWechat/aspnet-core/src/hc.dzwechat.Web.Host/wwwroot/files/downloadtemp/兑换明细.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t xml:space="preserve">订单编号</t>
   </si>
@@ -35,16 +35,73 @@
     <t xml:space="preserve">物流公司</t>
   </si>
   <si>
+    <t xml:space="preserve">OR20190110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国营烟酒专卖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玉溪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线下兑换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-14 03:12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR20190108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-14 03:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR20190114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中南海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮寄兑换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-14 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天天快递</t>
+  </si>
+  <si>
     <t xml:space="preserve">OR20190103</t>
   </si>
   <si>
+    <t xml:space="preserve">川味香肠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">云烟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宽窄如意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">脐橙</t>
+  </si>
+  <si>
     <t xml:space="preserve">小王高档烟酒店</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-01-11 10:26:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132329300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中通快递</t>
+  </si>
+  <si>
     <t xml:space="preserve">岳池米粉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邮寄兑换</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-04 10:26:31</t>
@@ -160,34 +217,233 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
